--- a/state_results/Rivers/WhanganuiatPipiriki_aca75a67c4.xlsx
+++ b/state_results/Rivers/WhanganuiatPipiriki_aca75a67c4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U326"/>
+  <dimension ref="A1:U346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,7 +813,7 @@
         <v>0.14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.183672750246868</v>
+        <v>0.183808526780912</v>
       </c>
       <c r="H5" t="n">
         <v>0.57</v>
@@ -824,7 +824,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.05089</v>
+        <v>0.05134</v>
       </c>
       <c r="M5" t="n">
         <v>0.35</v>
@@ -894,7 +894,7 @@
         <v>0.14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.183672750246868</v>
+        <v>0.183808526780912</v>
       </c>
       <c r="H6" t="n">
         <v>0.57</v>
@@ -905,7 +905,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.05089</v>
+        <v>0.05134</v>
       </c>
       <c r="M6" t="n">
         <v>0.35</v>
@@ -1056,7 +1056,7 @@
         <v>0.007</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008678447415172401</v>
+        <v>0.008679364096095</v>
       </c>
       <c r="H8" t="n">
         <v>0.031</v>
@@ -1137,7 +1137,7 @@
         <v>0.007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008678447415172401</v>
+        <v>0.008679364096095</v>
       </c>
       <c r="H9" t="n">
         <v>0.031</v>
@@ -1218,7 +1218,7 @@
         <v>107.5</v>
       </c>
       <c r="G10" t="n">
-        <v>729.612255985919</v>
+        <v>729.612318057988</v>
       </c>
       <c r="H10" t="n">
         <v>10500</v>
@@ -1303,7 +1303,7 @@
         <v>107.5</v>
       </c>
       <c r="G11" t="n">
-        <v>729.612255985919</v>
+        <v>729.612318057988</v>
       </c>
       <c r="H11" t="n">
         <v>10500</v>
@@ -1388,7 +1388,7 @@
         <v>107.5</v>
       </c>
       <c r="G12" t="n">
-        <v>729.612255985919</v>
+        <v>729.612318057988</v>
       </c>
       <c r="H12" t="n">
         <v>10500</v>
@@ -1473,7 +1473,7 @@
         <v>107.5</v>
       </c>
       <c r="G13" t="n">
-        <v>729.612255985919</v>
+        <v>729.612318057988</v>
       </c>
       <c r="H13" t="n">
         <v>10500</v>
@@ -1635,7 +1635,7 @@
         <v>0.14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.176049465612849</v>
+        <v>0.176172141892539</v>
       </c>
       <c r="H15" t="n">
         <v>0.57</v>
@@ -1716,7 +1716,7 @@
         <v>0.14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.176049465612849</v>
+        <v>0.176172141892539</v>
       </c>
       <c r="H16" t="n">
         <v>0.57</v>
@@ -1878,7 +1878,7 @@
         <v>0.008</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0102684175577719</v>
+        <v>0.0102693518671738</v>
       </c>
       <c r="H18" t="n">
         <v>0.064</v>
@@ -1959,7 +1959,7 @@
         <v>0.008</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0102684175577719</v>
+        <v>0.0102693518671738</v>
       </c>
       <c r="H19" t="n">
         <v>0.064</v>
@@ -2457,7 +2457,7 @@
         <v>0.145</v>
       </c>
       <c r="G25" t="n">
-        <v>0.174327267105013</v>
+        <v>0.174457617765984</v>
       </c>
       <c r="H25" t="n">
         <v>0.4</v>
@@ -2538,7 +2538,7 @@
         <v>0.145</v>
       </c>
       <c r="G26" t="n">
-        <v>0.174327267105013</v>
+        <v>0.174457617765984</v>
       </c>
       <c r="H26" t="n">
         <v>0.4</v>
@@ -2700,7 +2700,7 @@
         <v>0.01</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0127029206111877</v>
+        <v>0.0127038203165377</v>
       </c>
       <c r="H28" t="n">
         <v>0.064</v>
@@ -2781,7 +2781,7 @@
         <v>0.01</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0127029206111877</v>
+        <v>0.0127038203165377</v>
       </c>
       <c r="H29" t="n">
         <v>0.064</v>
@@ -2862,7 +2862,7 @@
         <v>145</v>
       </c>
       <c r="G30" t="n">
-        <v>971.816835926051</v>
+        <v>971.816600023993</v>
       </c>
       <c r="H30" t="n">
         <v>10500</v>
@@ -2947,7 +2947,7 @@
         <v>145</v>
       </c>
       <c r="G31" t="n">
-        <v>971.816835926051</v>
+        <v>971.816600023993</v>
       </c>
       <c r="H31" t="n">
         <v>10500</v>
@@ -3032,7 +3032,7 @@
         <v>145</v>
       </c>
       <c r="G32" t="n">
-        <v>971.816835926051</v>
+        <v>971.816600023993</v>
       </c>
       <c r="H32" t="n">
         <v>10500</v>
@@ -3117,7 +3117,7 @@
         <v>145</v>
       </c>
       <c r="G33" t="n">
-        <v>971.816835926051</v>
+        <v>971.816600023993</v>
       </c>
       <c r="H33" t="n">
         <v>10500</v>
@@ -3279,7 +3279,7 @@
         <v>0.155</v>
       </c>
       <c r="G35" t="n">
-        <v>0.17337937479542</v>
+        <v>0.173491677728232</v>
       </c>
       <c r="H35" t="n">
         <v>0.4</v>
@@ -3360,7 +3360,7 @@
         <v>0.155</v>
       </c>
       <c r="G36" t="n">
-        <v>0.17337937479542</v>
+        <v>0.173491677728232</v>
       </c>
       <c r="H36" t="n">
         <v>0.4</v>
@@ -3522,7 +3522,7 @@
         <v>0.012</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0134793111045826</v>
+        <v>0.0134821976755248</v>
       </c>
       <c r="H38" t="n">
         <v>0.064</v>
@@ -3603,7 +3603,7 @@
         <v>0.012</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0134793111045826</v>
+        <v>0.0134821976755248</v>
       </c>
       <c r="H39" t="n">
         <v>0.064</v>
@@ -3684,7 +3684,7 @@
         <v>220</v>
       </c>
       <c r="G40" t="n">
-        <v>1040.55757666679</v>
+        <v>1040.55734076473</v>
       </c>
       <c r="H40" t="n">
         <v>10500</v>
@@ -3769,7 +3769,7 @@
         <v>220</v>
       </c>
       <c r="G41" t="n">
-        <v>1040.55757666679</v>
+        <v>1040.55734076473</v>
       </c>
       <c r="H41" t="n">
         <v>10500</v>
@@ -3854,7 +3854,7 @@
         <v>220</v>
       </c>
       <c r="G42" t="n">
-        <v>1040.55757666679</v>
+        <v>1040.55734076473</v>
       </c>
       <c r="H42" t="n">
         <v>10500</v>
@@ -3939,7 +3939,7 @@
         <v>220</v>
       </c>
       <c r="G43" t="n">
-        <v>1040.55757666679</v>
+        <v>1040.55734076473</v>
       </c>
       <c r="H43" t="n">
         <v>10500</v>
@@ -4101,7 +4101,7 @@
         <v>0.00506</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0074240059723089</v>
+        <v>0.0074313559857078</v>
       </c>
       <c r="H45" t="n">
         <v>0.0537861731404755</v>
@@ -4182,7 +4182,7 @@
         <v>0.00506</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0074240059723089</v>
+        <v>0.0074313559857078</v>
       </c>
       <c r="H46" t="n">
         <v>0.0537861731404755</v>
@@ -4263,7 +4263,7 @@
         <v>0.155</v>
       </c>
       <c r="G47" t="n">
-        <v>0.176124126996587</v>
+        <v>0.176219702018284</v>
       </c>
       <c r="H47" t="n">
         <v>0.45</v>
@@ -4344,7 +4344,7 @@
         <v>0.155</v>
       </c>
       <c r="G48" t="n">
-        <v>0.176124126996587</v>
+        <v>0.176219702018284</v>
       </c>
       <c r="H48" t="n">
         <v>0.45</v>
@@ -4660,7 +4660,7 @@
         <v>0.011</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0128022706539982</v>
+        <v>0.0128095912069202</v>
       </c>
       <c r="H52" t="n">
         <v>0.064</v>
@@ -4741,7 +4741,7 @@
         <v>0.011</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0128022706539982</v>
+        <v>0.0128095912069202</v>
       </c>
       <c r="H53" t="n">
         <v>0.064</v>
@@ -4822,7 +4822,7 @@
         <v>120</v>
       </c>
       <c r="G54" t="n">
-        <v>1036.7595985811</v>
+        <v>1036.7583007027</v>
       </c>
       <c r="H54" t="n">
         <v>10500</v>
@@ -4907,7 +4907,7 @@
         <v>120</v>
       </c>
       <c r="G55" t="n">
-        <v>1036.7595985811</v>
+        <v>1036.7583007027</v>
       </c>
       <c r="H55" t="n">
         <v>10500</v>
@@ -4992,7 +4992,7 @@
         <v>120</v>
       </c>
       <c r="G56" t="n">
-        <v>1036.7595985811</v>
+        <v>1036.7583007027</v>
       </c>
       <c r="H56" t="n">
         <v>10500</v>
@@ -5077,7 +5077,7 @@
         <v>120</v>
       </c>
       <c r="G57" t="n">
-        <v>1036.7595985811</v>
+        <v>1036.7583007027</v>
       </c>
       <c r="H57" t="n">
         <v>10500</v>
@@ -5239,7 +5239,7 @@
         <v>0.00477</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0105082328315286</v>
+        <v>0.010522041208443</v>
       </c>
       <c r="H59" t="n">
         <v>0.130649940963726</v>
@@ -5320,7 +5320,7 @@
         <v>0.00477</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0105082328315286</v>
+        <v>0.010522041208443</v>
       </c>
       <c r="H60" t="n">
         <v>0.130649940963726</v>
@@ -5401,7 +5401,7 @@
         <v>0.17</v>
       </c>
       <c r="G61" t="n">
-        <v>0.195410738363745</v>
+        <v>0.19548494227042</v>
       </c>
       <c r="H61" t="n">
         <v>0.45</v>
@@ -5482,7 +5482,7 @@
         <v>0.17</v>
       </c>
       <c r="G62" t="n">
-        <v>0.195410738363745</v>
+        <v>0.19548494227042</v>
       </c>
       <c r="H62" t="n">
         <v>0.45</v>
@@ -5559,10 +5559,10 @@
         <v>0.165</v>
       </c>
       <c r="G63" t="n">
-        <v>0.202998557681615</v>
+        <v>0.202998509606513</v>
       </c>
       <c r="H63" t="n">
-        <v>0.596</v>
+        <v>0.5956</v>
       </c>
       <c r="I63" t="n">
         <v>0.48775</v>
@@ -5573,7 +5573,7 @@
         <v>0.037</v>
       </c>
       <c r="M63" t="n">
-        <v>0.3732</v>
+        <v>0.37313</v>
       </c>
       <c r="N63" t="n">
         <v>0.4241</v>
@@ -5636,10 +5636,10 @@
         <v>0.165</v>
       </c>
       <c r="G64" t="n">
-        <v>0.202998557681615</v>
+        <v>0.202998509606513</v>
       </c>
       <c r="H64" t="n">
-        <v>0.596</v>
+        <v>0.5956</v>
       </c>
       <c r="I64" t="n">
         <v>0.48775</v>
@@ -5650,7 +5650,7 @@
         <v>0.037</v>
       </c>
       <c r="M64" t="n">
-        <v>0.3732</v>
+        <v>0.37313</v>
       </c>
       <c r="N64" t="n">
         <v>0.4241</v>
@@ -5798,7 +5798,7 @@
         <v>0.01</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0117528889782445</v>
+        <v>0.0117598245780014</v>
       </c>
       <c r="H66" t="n">
         <v>0.064</v>
@@ -5879,7 +5879,7 @@
         <v>0.01</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0117528889782445</v>
+        <v>0.0117598245780014</v>
       </c>
       <c r="H67" t="n">
         <v>0.064</v>
@@ -5960,7 +5960,7 @@
         <v>120</v>
       </c>
       <c r="G68" t="n">
-        <v>829.539963543166</v>
+        <v>829.5387112043589</v>
       </c>
       <c r="H68" t="n">
         <v>9200</v>
@@ -6045,7 +6045,7 @@
         <v>120</v>
       </c>
       <c r="G69" t="n">
-        <v>829.539963543166</v>
+        <v>829.5387112043589</v>
       </c>
       <c r="H69" t="n">
         <v>9200</v>
@@ -6130,7 +6130,7 @@
         <v>120</v>
       </c>
       <c r="G70" t="n">
-        <v>829.539963543166</v>
+        <v>829.5387112043589</v>
       </c>
       <c r="H70" t="n">
         <v>9200</v>
@@ -6215,7 +6215,7 @@
         <v>120</v>
       </c>
       <c r="G71" t="n">
-        <v>829.539963543166</v>
+        <v>829.5387112043589</v>
       </c>
       <c r="H71" t="n">
         <v>9200</v>
@@ -6377,7 +6377,7 @@
         <v>0.00315</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0091657434396114</v>
+        <v>0.009175029737574201</v>
       </c>
       <c r="H73" t="n">
         <v>0.130649940963726</v>
@@ -6458,7 +6458,7 @@
         <v>0.00315</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0091657434396114</v>
+        <v>0.009175029737574201</v>
       </c>
       <c r="H74" t="n">
         <v>0.130649940963726</v>
@@ -6539,7 +6539,7 @@
         <v>0.19</v>
       </c>
       <c r="G75" t="n">
-        <v>0.19650478015995</v>
+        <v>0.196574195838758</v>
       </c>
       <c r="H75" t="n">
         <v>0.45</v>
@@ -6620,7 +6620,7 @@
         <v>0.19</v>
       </c>
       <c r="G76" t="n">
-        <v>0.19650478015995</v>
+        <v>0.196574195838758</v>
       </c>
       <c r="H76" t="n">
         <v>0.45</v>
@@ -6697,10 +6697,10 @@
         <v>0.165</v>
       </c>
       <c r="G77" t="n">
-        <v>0.200806651801135</v>
+        <v>0.200816500056304</v>
       </c>
       <c r="H77" t="n">
-        <v>0.596</v>
+        <v>0.5956</v>
       </c>
       <c r="I77" t="n">
         <v>0.55745</v>
@@ -6711,7 +6711,7 @@
         <v>0.03</v>
       </c>
       <c r="M77" t="n">
-        <v>0.37272</v>
+        <v>0.37262</v>
       </c>
       <c r="N77" t="n">
         <v>0.45508</v>
@@ -6774,10 +6774,10 @@
         <v>0.165</v>
       </c>
       <c r="G78" t="n">
-        <v>0.200806651801135</v>
+        <v>0.200816500056304</v>
       </c>
       <c r="H78" t="n">
-        <v>0.596</v>
+        <v>0.5956</v>
       </c>
       <c r="I78" t="n">
         <v>0.55745</v>
@@ -6788,7 +6788,7 @@
         <v>0.03</v>
       </c>
       <c r="M78" t="n">
-        <v>0.37272</v>
+        <v>0.37262</v>
       </c>
       <c r="N78" t="n">
         <v>0.45508</v>
@@ -6855,7 +6855,7 @@
         <v>0.595</v>
       </c>
       <c r="G79" t="n">
-        <v>1.0158546269291</v>
+        <v>1.01588969804741</v>
       </c>
       <c r="H79" t="n">
         <v>3.92</v>
@@ -6936,7 +6936,7 @@
         <v>0.01</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0109264576385634</v>
+        <v>0.0109340592942891</v>
       </c>
       <c r="H80" t="n">
         <v>0.044</v>
@@ -7017,7 +7017,7 @@
         <v>0.01</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0109264576385634</v>
+        <v>0.0109340592942891</v>
       </c>
       <c r="H81" t="n">
         <v>0.044</v>
@@ -7098,7 +7098,7 @@
         <v>120</v>
       </c>
       <c r="G82" t="n">
-        <v>884.752314164043</v>
+        <v>884.750080833729</v>
       </c>
       <c r="H82" t="n">
         <v>9200</v>
@@ -7183,7 +7183,7 @@
         <v>120</v>
       </c>
       <c r="G83" t="n">
-        <v>884.752314164043</v>
+        <v>884.750080833729</v>
       </c>
       <c r="H83" t="n">
         <v>9200</v>
@@ -7268,7 +7268,7 @@
         <v>120</v>
       </c>
       <c r="G84" t="n">
-        <v>884.752314164043</v>
+        <v>884.750080833729</v>
       </c>
       <c r="H84" t="n">
         <v>9200</v>
@@ -7353,7 +7353,7 @@
         <v>120</v>
       </c>
       <c r="G85" t="n">
-        <v>884.752314164043</v>
+        <v>884.750080833729</v>
       </c>
       <c r="H85" t="n">
         <v>9200</v>
@@ -7512,10 +7512,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.00232</v>
+        <v>0.0023</v>
       </c>
       <c r="G87" t="n">
-        <v>0.009503806977905999</v>
+        <v>0.0095021811704206</v>
       </c>
       <c r="H87" t="n">
         <v>0.130649940963726</v>
@@ -7526,13 +7526,13 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.00273</v>
+        <v>0.00269</v>
       </c>
       <c r="M87" t="n">
         <v>0.01318</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01976</v>
+        <v>0.01931</v>
       </c>
       <c r="O87" t="n">
         <v>1775744</v>
@@ -7593,10 +7593,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.00232</v>
+        <v>0.0023</v>
       </c>
       <c r="G88" t="n">
-        <v>0.009503806977905999</v>
+        <v>0.0095021811704206</v>
       </c>
       <c r="H88" t="n">
         <v>0.130649940963726</v>
@@ -7607,13 +7607,13 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>0.00273</v>
+        <v>0.00269</v>
       </c>
       <c r="M88" t="n">
         <v>0.01318</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01976</v>
+        <v>0.01931</v>
       </c>
       <c r="O88" t="n">
         <v>1775744</v>
@@ -7677,7 +7677,7 @@
         <v>0.155</v>
       </c>
       <c r="G89" t="n">
-        <v>0.186158332952708</v>
+        <v>0.186209178141382</v>
       </c>
       <c r="H89" t="n">
         <v>0.553</v>
@@ -7758,7 +7758,7 @@
         <v>0.155</v>
       </c>
       <c r="G90" t="n">
-        <v>0.186158332952708</v>
+        <v>0.186209178141382</v>
       </c>
       <c r="H90" t="n">
         <v>0.553</v>
@@ -7832,13 +7832,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.142</v>
+        <v>0.1425</v>
       </c>
       <c r="G91" t="n">
-        <v>0.194982090397626</v>
+        <v>0.194983166722971</v>
       </c>
       <c r="H91" t="n">
-        <v>0.596</v>
+        <v>0.5956</v>
       </c>
       <c r="I91" t="n">
         <v>0.57145</v>
@@ -7849,7 +7849,7 @@
         <v>0.06</v>
       </c>
       <c r="M91" t="n">
-        <v>0.35787</v>
+        <v>0.35737</v>
       </c>
       <c r="N91" t="n">
         <v>0.5190399999999999</v>
@@ -7909,13 +7909,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.142</v>
+        <v>0.1425</v>
       </c>
       <c r="G92" t="n">
-        <v>0.194982090397626</v>
+        <v>0.194983166722971</v>
       </c>
       <c r="H92" t="n">
-        <v>0.596</v>
+        <v>0.5956</v>
       </c>
       <c r="I92" t="n">
         <v>0.57145</v>
@@ -7926,7 +7926,7 @@
         <v>0.06</v>
       </c>
       <c r="M92" t="n">
-        <v>0.35787</v>
+        <v>0.35737</v>
       </c>
       <c r="N92" t="n">
         <v>0.5190399999999999</v>
@@ -7993,13 +7993,13 @@
         <v>0.6</v>
       </c>
       <c r="G93" t="n">
-        <v>1.08620958746394</v>
+        <v>1.08408091373197</v>
       </c>
       <c r="H93" t="n">
         <v>3.92</v>
       </c>
       <c r="I93" t="n">
-        <v>2.84366</v>
+        <v>2.83836</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>0.008</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0079529661208587</v>
+        <v>0.0079629065494633</v>
       </c>
       <c r="H94" t="n">
         <v>0.02</v>
@@ -8085,7 +8085,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.00356</v>
+        <v>0.00358</v>
       </c>
       <c r="M94" t="n">
         <v>0.01181</v>
@@ -8155,7 +8155,7 @@
         <v>0.008</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0079529661208587</v>
+        <v>0.0079629065494633</v>
       </c>
       <c r="H95" t="n">
         <v>0.02</v>
@@ -8166,7 +8166,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.00356</v>
+        <v>0.00358</v>
       </c>
       <c r="M95" t="n">
         <v>0.01181</v>
@@ -8236,7 +8236,7 @@
         <v>101</v>
       </c>
       <c r="G96" t="n">
-        <v>500.732855567433</v>
+        <v>500.730845723279</v>
       </c>
       <c r="H96" t="n">
         <v>4900</v>
@@ -8321,7 +8321,7 @@
         <v>101</v>
       </c>
       <c r="G97" t="n">
-        <v>500.732855567433</v>
+        <v>500.730845723279</v>
       </c>
       <c r="H97" t="n">
         <v>4900</v>
@@ -8406,7 +8406,7 @@
         <v>101</v>
       </c>
       <c r="G98" t="n">
-        <v>500.732855567433</v>
+        <v>500.730845723279</v>
       </c>
       <c r="H98" t="n">
         <v>4900</v>
@@ -8491,7 +8491,7 @@
         <v>101</v>
       </c>
       <c r="G99" t="n">
-        <v>500.732855567433</v>
+        <v>500.730845723279</v>
       </c>
       <c r="H99" t="n">
         <v>4900</v>
@@ -8653,7 +8653,7 @@
         <v>0.0042</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0123242950382571</v>
+        <v>0.0123220015931161</v>
       </c>
       <c r="H101" t="n">
         <v>0.130649940963726</v>
@@ -8734,7 +8734,7 @@
         <v>0.0042</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0123242950382571</v>
+        <v>0.0123220015931161</v>
       </c>
       <c r="H102" t="n">
         <v>0.130649940963726</v>
@@ -8815,7 +8815,7 @@
         <v>0.155</v>
       </c>
       <c r="G103" t="n">
-        <v>0.203276996314009</v>
+        <v>0.203308637173134</v>
       </c>
       <c r="H103" t="n">
         <v>0.8</v>
@@ -8896,7 +8896,7 @@
         <v>0.155</v>
       </c>
       <c r="G104" t="n">
-        <v>0.203276996314009</v>
+        <v>0.203308637173134</v>
       </c>
       <c r="H104" t="n">
         <v>0.8</v>
@@ -8970,10 +8970,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.142</v>
+        <v>0.1425</v>
       </c>
       <c r="G105" t="n">
-        <v>0.208894371099381</v>
+        <v>0.208886675494901</v>
       </c>
       <c r="H105" t="n">
         <v>0.8149999999999999</v>
@@ -9047,10 +9047,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.142</v>
+        <v>0.1425</v>
       </c>
       <c r="G106" t="n">
-        <v>0.208894371099381</v>
+        <v>0.208886675494901</v>
       </c>
       <c r="H106" t="n">
         <v>0.8149999999999999</v>
@@ -9439,7 +9439,7 @@
         <v>0.6</v>
       </c>
       <c r="G111" t="n">
-        <v>1.08057391736731</v>
+        <v>1.0785287210366</v>
       </c>
       <c r="H111" t="n">
         <v>3.92</v>
@@ -9520,7 +9520,7 @@
         <v>0.007</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0076455173552787</v>
+        <v>0.0076535416500362</v>
       </c>
       <c r="H112" t="n">
         <v>0.023</v>
@@ -9531,7 +9531,7 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00363</v>
+        <v>0.00364</v>
       </c>
       <c r="M112" t="n">
         <v>0.01047</v>
@@ -9601,7 +9601,7 @@
         <v>0.007</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0076455173552787</v>
+        <v>0.0076535416500362</v>
       </c>
       <c r="H113" t="n">
         <v>0.023</v>
@@ -9612,7 +9612,7 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>0.00363</v>
+        <v>0.00364</v>
       </c>
       <c r="M113" t="n">
         <v>0.01047</v>
@@ -9682,7 +9682,7 @@
         <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>424.691063853282</v>
+        <v>424.689122139439</v>
       </c>
       <c r="H114" t="n">
         <v>4400</v>
@@ -9767,7 +9767,7 @@
         <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>424.691063853282</v>
+        <v>424.689122139439</v>
       </c>
       <c r="H115" t="n">
         <v>4400</v>
@@ -9852,7 +9852,7 @@
         <v>100</v>
       </c>
       <c r="G116" t="n">
-        <v>424.691063853282</v>
+        <v>424.689122139439</v>
       </c>
       <c r="H116" t="n">
         <v>4400</v>
@@ -9937,7 +9937,7 @@
         <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>424.691063853282</v>
+        <v>424.689122139439</v>
       </c>
       <c r="H117" t="n">
         <v>4400</v>
@@ -10099,7 +10099,7 @@
         <v>0.009650000000000001</v>
       </c>
       <c r="G119" t="n">
-        <v>0.014797731031726</v>
+        <v>0.014792593889503</v>
       </c>
       <c r="H119" t="n">
         <v>0.130649940963726</v>
@@ -10180,7 +10180,7 @@
         <v>0.009650000000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>0.014797731031726</v>
+        <v>0.014792593889503</v>
       </c>
       <c r="H120" t="n">
         <v>0.130649940963726</v>
@@ -10261,7 +10261,7 @@
         <v>0.1645</v>
       </c>
       <c r="G121" t="n">
-        <v>0.202013146498309</v>
+        <v>0.202043205314477</v>
       </c>
       <c r="H121" t="n">
         <v>0.8</v>
@@ -10342,7 +10342,7 @@
         <v>0.1645</v>
       </c>
       <c r="G122" t="n">
-        <v>0.202013146498309</v>
+        <v>0.202043205314477</v>
       </c>
       <c r="H122" t="n">
         <v>0.8</v>
@@ -10419,13 +10419,13 @@
         <v>0.166</v>
       </c>
       <c r="G123" t="n">
-        <v>0.211118290723131</v>
+        <v>0.211127805139142</v>
       </c>
       <c r="H123" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="I123" t="n">
-        <v>0.587</v>
+        <v>0.58678</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -10496,13 +10496,13 @@
         <v>0.166</v>
       </c>
       <c r="G124" t="n">
-        <v>0.211118290723131</v>
+        <v>0.211127805139142</v>
       </c>
       <c r="H124" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="I124" t="n">
-        <v>0.587</v>
+        <v>0.58678</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -10885,13 +10885,13 @@
         <v>0.5</v>
       </c>
       <c r="G129" t="n">
-        <v>0.924576934402712</v>
+        <v>0.922448260670749</v>
       </c>
       <c r="H129" t="n">
         <v>3.92</v>
       </c>
       <c r="I129" t="n">
-        <v>2.84366</v>
+        <v>2.83836</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -10966,7 +10966,7 @@
         <v>0.008</v>
       </c>
       <c r="G130" t="n">
-        <v>0.008366129251515499</v>
+        <v>0.008370214301546899</v>
       </c>
       <c r="H130" t="n">
         <v>0.023</v>
@@ -11047,7 +11047,7 @@
         <v>0.008</v>
       </c>
       <c r="G131" t="n">
-        <v>0.008366129251515499</v>
+        <v>0.008370214301546899</v>
       </c>
       <c r="H131" t="n">
         <v>0.023</v>
@@ -11128,7 +11128,7 @@
         <v>120</v>
       </c>
       <c r="G132" t="n">
-        <v>357.137355684575</v>
+        <v>357.136407947018</v>
       </c>
       <c r="H132" t="n">
         <v>3448</v>
@@ -11213,7 +11213,7 @@
         <v>120</v>
       </c>
       <c r="G133" t="n">
-        <v>357.137355684575</v>
+        <v>357.136407947018</v>
       </c>
       <c r="H133" t="n">
         <v>3448</v>
@@ -11298,7 +11298,7 @@
         <v>120</v>
       </c>
       <c r="G134" t="n">
-        <v>357.137355684575</v>
+        <v>357.136407947018</v>
       </c>
       <c r="H134" t="n">
         <v>3448</v>
@@ -11383,7 +11383,7 @@
         <v>120</v>
       </c>
       <c r="G135" t="n">
-        <v>357.137355684575</v>
+        <v>357.136407947018</v>
       </c>
       <c r="H135" t="n">
         <v>3448</v>
@@ -11545,7 +11545,7 @@
         <v>0.008670000000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0115118678149112</v>
+        <v>0.0115005258278632</v>
       </c>
       <c r="H137" t="n">
         <v>0.0532055478645406</v>
@@ -11626,7 +11626,7 @@
         <v>0.008670000000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0115118678149112</v>
+        <v>0.0115005258278632</v>
       </c>
       <c r="H138" t="n">
         <v>0.0532055478645406</v>
@@ -11707,7 +11707,7 @@
         <v>0.137</v>
       </c>
       <c r="G139" t="n">
-        <v>0.200290323672089</v>
+        <v>0.200314861481206</v>
       </c>
       <c r="H139" t="n">
         <v>0.8</v>
@@ -11788,7 +11788,7 @@
         <v>0.137</v>
       </c>
       <c r="G140" t="n">
-        <v>0.200290323672089</v>
+        <v>0.200314861481206</v>
       </c>
       <c r="H140" t="n">
         <v>0.8</v>
@@ -11865,13 +11865,13 @@
         <v>0.166</v>
       </c>
       <c r="G141" t="n">
-        <v>0.215305831474441</v>
+        <v>0.215323857134174</v>
       </c>
       <c r="H141" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="I141" t="n">
-        <v>0.65885</v>
+        <v>0.65889</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -11942,13 +11942,13 @@
         <v>0.166</v>
       </c>
       <c r="G142" t="n">
-        <v>0.215305831474441</v>
+        <v>0.215323857134174</v>
       </c>
       <c r="H142" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="I142" t="n">
-        <v>0.65885</v>
+        <v>0.65889</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -12408,7 +12408,7 @@
         <v>0.5</v>
       </c>
       <c r="G148" t="n">
-        <v>0.877593525210449</v>
+        <v>0.875548328879739</v>
       </c>
       <c r="H148" t="n">
         <v>3.92</v>
@@ -12489,7 +12489,7 @@
         <v>0.008</v>
       </c>
       <c r="G149" t="n">
-        <v>0.009234815712631199</v>
+        <v>0.009238201053097601</v>
       </c>
       <c r="H149" t="n">
         <v>0.023</v>
@@ -12570,7 +12570,7 @@
         <v>0.008</v>
       </c>
       <c r="G150" t="n">
-        <v>0.009234815712631199</v>
+        <v>0.009238201053097601</v>
       </c>
       <c r="H150" t="n">
         <v>0.023</v>
@@ -12651,7 +12651,7 @@
         <v>111</v>
       </c>
       <c r="G151" t="n">
-        <v>344.188203142203</v>
+        <v>344.187255404645</v>
       </c>
       <c r="H151" t="n">
         <v>3448</v>
@@ -12736,7 +12736,7 @@
         <v>111</v>
       </c>
       <c r="G152" t="n">
-        <v>344.188203142203</v>
+        <v>344.187255404645</v>
       </c>
       <c r="H152" t="n">
         <v>3448</v>
@@ -12821,7 +12821,7 @@
         <v>111</v>
       </c>
       <c r="G153" t="n">
-        <v>344.188203142203</v>
+        <v>344.187255404645</v>
       </c>
       <c r="H153" t="n">
         <v>3448</v>
@@ -12906,7 +12906,7 @@
         <v>111</v>
       </c>
       <c r="G154" t="n">
-        <v>344.188203142203</v>
+        <v>344.187255404645</v>
       </c>
       <c r="H154" t="n">
         <v>3448</v>
@@ -13068,7 +13068,7 @@
         <v>0.00855</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0115091265199914</v>
+        <v>0.0114996178241863</v>
       </c>
       <c r="H156" t="n">
         <v>0.0532055478645406</v>
@@ -13149,7 +13149,7 @@
         <v>0.00855</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0115091265199914</v>
+        <v>0.0114996178241863</v>
       </c>
       <c r="H157" t="n">
         <v>0.0532055478645406</v>
@@ -13230,7 +13230,7 @@
         <v>0.114</v>
       </c>
       <c r="G158" t="n">
-        <v>0.193103828134446</v>
+        <v>0.193124206992866</v>
       </c>
       <c r="H158" t="n">
         <v>0.8</v>
@@ -13241,7 +13241,7 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>0.01417</v>
+        <v>0.01435</v>
       </c>
       <c r="M158" t="n">
         <v>0.36638</v>
@@ -13311,7 +13311,7 @@
         <v>0.114</v>
       </c>
       <c r="G159" t="n">
-        <v>0.193103828134446</v>
+        <v>0.193124206992866</v>
       </c>
       <c r="H159" t="n">
         <v>0.8</v>
@@ -13322,7 +13322,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.01417</v>
+        <v>0.01435</v>
       </c>
       <c r="M159" t="n">
         <v>0.36638</v>
@@ -13462,16 +13462,16 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.149</v>
+        <v>0.1492</v>
       </c>
       <c r="G161" t="n">
-        <v>0.211542372881356</v>
+        <v>0.211550847457627</v>
       </c>
       <c r="H161" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="I161" t="n">
-        <v>0.65885</v>
+        <v>0.65889</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -13539,16 +13539,16 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.149</v>
+        <v>0.1492</v>
       </c>
       <c r="G162" t="n">
-        <v>0.211542372881356</v>
+        <v>0.211550847457627</v>
       </c>
       <c r="H162" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="I162" t="n">
-        <v>0.65885</v>
+        <v>0.65889</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -14008,13 +14008,13 @@
         <v>0.6</v>
       </c>
       <c r="G168" t="n">
-        <v>1.06248741122328</v>
+        <v>1.11760332859664</v>
       </c>
       <c r="H168" t="n">
-        <v>5.97861027925141</v>
+        <v>8.895510491837589</v>
       </c>
       <c r="I168" t="n">
-        <v>3.66459</v>
+        <v>3.5639</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -14089,7 +14089,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0305660118901177</v>
+        <v>0.0305687080550727</v>
       </c>
       <c r="H169" t="n">
         <v>0.6870000000000001</v>
@@ -14170,7 +14170,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0305660118901177</v>
+        <v>0.0305687080550727</v>
       </c>
       <c r="H170" t="n">
         <v>0.6870000000000001</v>
@@ -14251,7 +14251,7 @@
         <v>104</v>
       </c>
       <c r="G171" t="n">
-        <v>231.471202074671</v>
+        <v>231.470891948077</v>
       </c>
       <c r="H171" t="n">
         <v>1986</v>
@@ -14336,7 +14336,7 @@
         <v>104</v>
       </c>
       <c r="G172" t="n">
-        <v>231.471202074671</v>
+        <v>231.470891948077</v>
       </c>
       <c r="H172" t="n">
         <v>1986</v>
@@ -14421,7 +14421,7 @@
         <v>104</v>
       </c>
       <c r="G173" t="n">
-        <v>231.471202074671</v>
+        <v>231.470891948077</v>
       </c>
       <c r="H173" t="n">
         <v>1986</v>
@@ -14506,7 +14506,7 @@
         <v>104</v>
       </c>
       <c r="G174" t="n">
-        <v>231.471202074671</v>
+        <v>231.470891948077</v>
       </c>
       <c r="H174" t="n">
         <v>1986</v>
@@ -14668,7 +14668,7 @@
         <v>0.00387</v>
       </c>
       <c r="G176" t="n">
-        <v>0.009889727353858801</v>
+        <v>0.0098959548325088</v>
       </c>
       <c r="H176" t="n">
         <v>0.0532055478645406</v>
@@ -14679,7 +14679,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>0.00283</v>
+        <v>0.00287</v>
       </c>
       <c r="M176" t="n">
         <v>0.02146</v>
@@ -14749,7 +14749,7 @@
         <v>0.00387</v>
       </c>
       <c r="G177" t="n">
-        <v>0.009889727353858801</v>
+        <v>0.0098959548325088</v>
       </c>
       <c r="H177" t="n">
         <v>0.0532055478645406</v>
@@ -14760,7 +14760,7 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
-        <v>0.00283</v>
+        <v>0.00287</v>
       </c>
       <c r="M177" t="n">
         <v>0.02146</v>
@@ -14830,7 +14830,7 @@
         <v>0.13285</v>
       </c>
       <c r="G178" t="n">
-        <v>0.195076360325976</v>
+        <v>0.19510019702709</v>
       </c>
       <c r="H178" t="n">
         <v>0.8</v>
@@ -14841,7 +14841,7 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>0.008449999999999999</v>
+        <v>0.00861</v>
       </c>
       <c r="M178" t="n">
         <v>0.37507</v>
@@ -14911,7 +14911,7 @@
         <v>0.13285</v>
       </c>
       <c r="G179" t="n">
-        <v>0.195076360325976</v>
+        <v>0.19510019702709</v>
       </c>
       <c r="H179" t="n">
         <v>0.8</v>
@@ -14922,7 +14922,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
-        <v>0.008449999999999999</v>
+        <v>0.00861</v>
       </c>
       <c r="M179" t="n">
         <v>0.37507</v>
@@ -15062,27 +15062,27 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.158</v>
+        <v>0.1583</v>
       </c>
       <c r="G181" t="n">
-        <v>0.212202495408959</v>
+        <v>0.212245688387779</v>
       </c>
       <c r="H181" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="I181" t="n">
-        <v>0.6555</v>
+        <v>0.65555</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>0.027</v>
+        <v>0.0268</v>
       </c>
       <c r="M181" t="n">
-        <v>0.396</v>
+        <v>0.39592</v>
       </c>
       <c r="N181" t="n">
-        <v>0.4753</v>
+        <v>0.47509</v>
       </c>
       <c r="O181" t="n">
         <v>1775744</v>
@@ -15139,27 +15139,27 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.158</v>
+        <v>0.1583</v>
       </c>
       <c r="G182" t="n">
-        <v>0.212202495408959</v>
+        <v>0.212245688387779</v>
       </c>
       <c r="H182" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="I182" t="n">
-        <v>0.6555</v>
+        <v>0.65555</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>0.027</v>
+        <v>0.0268</v>
       </c>
       <c r="M182" t="n">
-        <v>0.396</v>
+        <v>0.39592</v>
       </c>
       <c r="N182" t="n">
-        <v>0.4753</v>
+        <v>0.47509</v>
       </c>
       <c r="O182" t="n">
         <v>1775744</v>
@@ -15608,10 +15608,10 @@
         <v>0.5</v>
       </c>
       <c r="G188" t="n">
-        <v>0.902372205585028</v>
+        <v>0.960710209836752</v>
       </c>
       <c r="H188" t="n">
-        <v>5.97861027925141</v>
+        <v>8.895510491837589</v>
       </c>
       <c r="I188" t="n">
         <v>3.5</v>
@@ -15689,7 +15689,7 @@
         <v>0.01</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0523574954986039</v>
+        <v>0.0523579698293238</v>
       </c>
       <c r="H189" t="n">
         <v>0.6870000000000001</v>
@@ -15770,7 +15770,7 @@
         <v>0.01</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0523574954986039</v>
+        <v>0.0523579698293238</v>
       </c>
       <c r="H190" t="n">
         <v>0.6870000000000001</v>
@@ -15851,7 +15851,7 @@
         <v>100</v>
       </c>
       <c r="G191" t="n">
-        <v>334.081371566197</v>
+        <v>334.081061439603</v>
       </c>
       <c r="H191" t="n">
         <v>3500</v>
@@ -15936,7 +15936,7 @@
         <v>100</v>
       </c>
       <c r="G192" t="n">
-        <v>334.081371566197</v>
+        <v>334.081061439603</v>
       </c>
       <c r="H192" t="n">
         <v>3500</v>
@@ -16021,7 +16021,7 @@
         <v>100</v>
       </c>
       <c r="G193" t="n">
-        <v>334.081371566197</v>
+        <v>334.081061439603</v>
       </c>
       <c r="H193" t="n">
         <v>3500</v>
@@ -16106,7 +16106,7 @@
         <v>100</v>
       </c>
       <c r="G194" t="n">
-        <v>334.081371566197</v>
+        <v>334.081061439603</v>
       </c>
       <c r="H194" t="n">
         <v>3500</v>
@@ -16265,10 +16265,10 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.00205</v>
+        <v>0.0021</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0068179229155203</v>
+        <v>0.0068336378041249</v>
       </c>
       <c r="H196" t="n">
         <v>0.0522353398535611</v>
@@ -16279,7 +16279,7 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
-        <v>0.00206</v>
+        <v>0.00211</v>
       </c>
       <c r="M196" t="n">
         <v>0.01333</v>
@@ -16346,10 +16346,10 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.00205</v>
+        <v>0.0021</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0068179229155203</v>
+        <v>0.0068336378041249</v>
       </c>
       <c r="H197" t="n">
         <v>0.0522353398535611</v>
@@ -16360,7 +16360,7 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
-        <v>0.00206</v>
+        <v>0.00211</v>
       </c>
       <c r="M197" t="n">
         <v>0.01333</v>
@@ -16430,7 +16430,7 @@
         <v>0.1255</v>
       </c>
       <c r="G198" t="n">
-        <v>0.187609783521422</v>
+        <v>0.187641588366475</v>
       </c>
       <c r="H198" t="n">
         <v>0.73</v>
@@ -16441,7 +16441,7 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
-        <v>0.01083</v>
+        <v>0.01117</v>
       </c>
       <c r="M198" t="n">
         <v>0.36776</v>
@@ -16511,7 +16511,7 @@
         <v>0.1255</v>
       </c>
       <c r="G199" t="n">
-        <v>0.187609783521422</v>
+        <v>0.187641588366475</v>
       </c>
       <c r="H199" t="n">
         <v>0.73</v>
@@ -16522,7 +16522,7 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
-        <v>0.01083</v>
+        <v>0.01117</v>
       </c>
       <c r="M199" t="n">
         <v>0.36776</v>
@@ -16662,27 +16662,27 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.147</v>
+        <v>0.1471</v>
       </c>
       <c r="G201" t="n">
-        <v>0.203463548257376</v>
+        <v>0.203525533545694</v>
       </c>
       <c r="H201" t="n">
         <v>0.774</v>
       </c>
       <c r="I201" t="n">
-        <v>0.6085</v>
+        <v>0.60855</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
-        <v>0.01533</v>
+        <v>0.0159</v>
       </c>
       <c r="M201" t="n">
-        <v>0.3842</v>
+        <v>0.38414</v>
       </c>
       <c r="N201" t="n">
-        <v>0.4753</v>
+        <v>0.47509</v>
       </c>
       <c r="O201" t="n">
         <v>1775744</v>
@@ -16739,27 +16739,27 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.147</v>
+        <v>0.1471</v>
       </c>
       <c r="G202" t="n">
-        <v>0.203463548257376</v>
+        <v>0.203525533545694</v>
       </c>
       <c r="H202" t="n">
         <v>0.774</v>
       </c>
       <c r="I202" t="n">
-        <v>0.6085</v>
+        <v>0.60855</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
-        <v>0.01533</v>
+        <v>0.0159</v>
       </c>
       <c r="M202" t="n">
-        <v>0.3842</v>
+        <v>0.38414</v>
       </c>
       <c r="N202" t="n">
-        <v>0.4753</v>
+        <v>0.47509</v>
       </c>
       <c r="O202" t="n">
         <v>1775744</v>
@@ -17208,10 +17208,10 @@
         <v>0.65</v>
       </c>
       <c r="G208" t="n">
-        <v>0.9636982407696359</v>
+        <v>1.02089236258505</v>
       </c>
       <c r="H208" t="n">
-        <v>5.97861027925141</v>
+        <v>8.895510491837589</v>
       </c>
       <c r="I208" t="n">
         <v>3.438</v>
@@ -17289,7 +17289,7 @@
         <v>0.011</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0562459698033402</v>
+        <v>0.05624620880569</v>
       </c>
       <c r="H209" t="n">
         <v>0.6870000000000001</v>
@@ -17370,7 +17370,7 @@
         <v>0.011</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0562459698033402</v>
+        <v>0.05624620880569</v>
       </c>
       <c r="H210" t="n">
         <v>0.6870000000000001</v>
@@ -17451,7 +17451,7 @@
         <v>100</v>
       </c>
       <c r="G211" t="n">
-        <v>302.149168176366</v>
+        <v>302.148858049772</v>
       </c>
       <c r="H211" t="n">
         <v>3500</v>
@@ -17536,7 +17536,7 @@
         <v>100</v>
       </c>
       <c r="G212" t="n">
-        <v>302.149168176366</v>
+        <v>302.148858049772</v>
       </c>
       <c r="H212" t="n">
         <v>3500</v>
@@ -17621,7 +17621,7 @@
         <v>100</v>
       </c>
       <c r="G213" t="n">
-        <v>302.149168176366</v>
+        <v>302.148858049772</v>
       </c>
       <c r="H213" t="n">
         <v>3500</v>
@@ -17706,7 +17706,7 @@
         <v>100</v>
       </c>
       <c r="G214" t="n">
-        <v>302.149168176366</v>
+        <v>302.148858049772</v>
       </c>
       <c r="H214" t="n">
         <v>3500</v>
@@ -17865,10 +17865,10 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.00202</v>
+        <v>0.00207</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0038491667525859</v>
+        <v>0.0038779041858239</v>
       </c>
       <c r="H216" t="n">
         <v>0.0241168923499229</v>
@@ -17879,10 +17879,10 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
-        <v>0.00203</v>
+        <v>0.00209</v>
       </c>
       <c r="M216" t="n">
-        <v>0.0058</v>
+        <v>0.00593</v>
       </c>
       <c r="N216" t="n">
         <v>0.01311</v>
@@ -17946,10 +17946,10 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.00202</v>
+        <v>0.00207</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0038491667525859</v>
+        <v>0.0038779041858239</v>
       </c>
       <c r="H217" t="n">
         <v>0.0241168923499229</v>
@@ -17960,10 +17960,10 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
-        <v>0.00203</v>
+        <v>0.00209</v>
       </c>
       <c r="M217" t="n">
-        <v>0.0058</v>
+        <v>0.00593</v>
       </c>
       <c r="N217" t="n">
         <v>0.01311</v>
@@ -18030,7 +18030,7 @@
         <v>0.13285</v>
       </c>
       <c r="G218" t="n">
-        <v>0.190476450188089</v>
+        <v>0.190508255033142</v>
       </c>
       <c r="H218" t="n">
         <v>0.73</v>
@@ -18041,7 +18041,7 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
-        <v>0.01083</v>
+        <v>0.01117</v>
       </c>
       <c r="M218" t="n">
         <v>0.3733</v>
@@ -18111,7 +18111,7 @@
         <v>0.13285</v>
       </c>
       <c r="G219" t="n">
-        <v>0.190476450188089</v>
+        <v>0.190508255033142</v>
       </c>
       <c r="H219" t="n">
         <v>0.73</v>
@@ -18122,7 +18122,7 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
-        <v>0.01083</v>
+        <v>0.01117</v>
       </c>
       <c r="M219" t="n">
         <v>0.3733</v>
@@ -18262,24 +18262,24 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0.147</v>
+        <v>0.1471</v>
       </c>
       <c r="G221" t="n">
-        <v>0.204463548257376</v>
+        <v>0.204525533545694</v>
       </c>
       <c r="H221" t="n">
         <v>0.774</v>
       </c>
       <c r="I221" t="n">
-        <v>0.5395</v>
+        <v>0.53935</v>
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
-        <v>0.01533</v>
+        <v>0.0159</v>
       </c>
       <c r="M221" t="n">
-        <v>0.3924</v>
+        <v>0.39226</v>
       </c>
       <c r="N221" t="n">
         <v>0.462</v>
@@ -18339,24 +18339,24 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0.147</v>
+        <v>0.1471</v>
       </c>
       <c r="G222" t="n">
-        <v>0.204463548257376</v>
+        <v>0.204525533545694</v>
       </c>
       <c r="H222" t="n">
         <v>0.774</v>
       </c>
       <c r="I222" t="n">
-        <v>0.5395</v>
+        <v>0.53935</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
-        <v>0.01533</v>
+        <v>0.0159</v>
       </c>
       <c r="M222" t="n">
-        <v>0.3924</v>
+        <v>0.39226</v>
       </c>
       <c r="N222" t="n">
         <v>0.462</v>
@@ -18808,10 +18808,10 @@
         <v>0.65</v>
       </c>
       <c r="G228" t="n">
-        <v>1.00950208074059</v>
+        <v>1.06453793380826</v>
       </c>
       <c r="H228" t="n">
-        <v>5.97861027925141</v>
+        <v>8.895510491837589</v>
       </c>
       <c r="I228" t="n">
         <v>3.44</v>
@@ -19051,7 +19051,7 @@
         <v>85</v>
       </c>
       <c r="G231" t="n">
-        <v>331.098320718739</v>
+        <v>331.098010592145</v>
       </c>
       <c r="H231" t="n">
         <v>3500</v>
@@ -19136,7 +19136,7 @@
         <v>85</v>
       </c>
       <c r="G232" t="n">
-        <v>331.098320718739</v>
+        <v>331.098010592145</v>
       </c>
       <c r="H232" t="n">
         <v>3500</v>
@@ -19221,7 +19221,7 @@
         <v>85</v>
       </c>
       <c r="G233" t="n">
-        <v>331.098320718739</v>
+        <v>331.098010592145</v>
       </c>
       <c r="H233" t="n">
         <v>3500</v>
@@ -19306,7 +19306,7 @@
         <v>85</v>
       </c>
       <c r="G234" t="n">
-        <v>331.098320718739</v>
+        <v>331.098010592145</v>
       </c>
       <c r="H234" t="n">
         <v>3500</v>
@@ -19465,10 +19465,10 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0.00237</v>
+        <v>0.00243</v>
       </c>
       <c r="G236" t="n">
-        <v>0.0041992917852184</v>
+        <v>0.0042382534859489</v>
       </c>
       <c r="H236" t="n">
         <v>0.0241168923499229</v>
@@ -19479,10 +19479,10 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
-        <v>0.00207</v>
+        <v>0.00212</v>
       </c>
       <c r="M236" t="n">
-        <v>0.00667</v>
+        <v>0.00682</v>
       </c>
       <c r="N236" t="n">
         <v>0.01298</v>
@@ -19546,10 +19546,10 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0.00237</v>
+        <v>0.00243</v>
       </c>
       <c r="G237" t="n">
-        <v>0.0041992917852184</v>
+        <v>0.0042382534859489</v>
       </c>
       <c r="H237" t="n">
         <v>0.0241168923499229</v>
@@ -19560,10 +19560,10 @@
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>0.00207</v>
+        <v>0.00212</v>
       </c>
       <c r="M237" t="n">
-        <v>0.00667</v>
+        <v>0.00682</v>
       </c>
       <c r="N237" t="n">
         <v>0.01298</v>
@@ -19630,7 +19630,7 @@
         <v>0.152</v>
       </c>
       <c r="G238" t="n">
-        <v>0.201698116854755</v>
+        <v>0.201729921699808</v>
       </c>
       <c r="H238" t="n">
         <v>0.585</v>
@@ -19711,7 +19711,7 @@
         <v>0.152</v>
       </c>
       <c r="G239" t="n">
-        <v>0.201698116854755</v>
+        <v>0.201729921699808</v>
       </c>
       <c r="H239" t="n">
         <v>0.585</v>
@@ -19862,24 +19862,24 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0.161</v>
+        <v>0.1612</v>
       </c>
       <c r="G241" t="n">
-        <v>0.215463548257376</v>
+        <v>0.21551720021236</v>
       </c>
       <c r="H241" t="n">
         <v>0.595</v>
       </c>
       <c r="I241" t="n">
-        <v>0.512</v>
+        <v>0.51185</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
-        <v>0.048</v>
+        <v>0.04805</v>
       </c>
       <c r="M241" t="n">
-        <v>0.4121</v>
+        <v>0.41216</v>
       </c>
       <c r="N241" t="n">
         <v>0.472</v>
@@ -19939,24 +19939,24 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0.161</v>
+        <v>0.1612</v>
       </c>
       <c r="G242" t="n">
-        <v>0.215463548257376</v>
+        <v>0.21551720021236</v>
       </c>
       <c r="H242" t="n">
         <v>0.595</v>
       </c>
       <c r="I242" t="n">
-        <v>0.512</v>
+        <v>0.51185</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
-        <v>0.048</v>
+        <v>0.04805</v>
       </c>
       <c r="M242" t="n">
-        <v>0.4121</v>
+        <v>0.41216</v>
       </c>
       <c r="N242" t="n">
         <v>0.472</v>
@@ -20408,10 +20408,10 @@
         <v>0.715</v>
       </c>
       <c r="G248" t="n">
-        <v>1.31617796813429</v>
+        <v>1.37019463873773</v>
       </c>
       <c r="H248" t="n">
-        <v>5.97861027925141</v>
+        <v>8.895510491837589</v>
       </c>
       <c r="I248" t="n">
         <v>4.148</v>
@@ -20651,7 +20651,7 @@
         <v>72</v>
       </c>
       <c r="G251" t="n">
-        <v>542.6689814207861</v>
+        <v>542.668665947182</v>
       </c>
       <c r="H251" t="n">
         <v>12000</v>
@@ -20736,7 +20736,7 @@
         <v>72</v>
       </c>
       <c r="G252" t="n">
-        <v>542.6689814207861</v>
+        <v>542.668665947182</v>
       </c>
       <c r="H252" t="n">
         <v>12000</v>
@@ -20821,7 +20821,7 @@
         <v>72</v>
       </c>
       <c r="G253" t="n">
-        <v>542.6689814207861</v>
+        <v>542.668665947182</v>
       </c>
       <c r="H253" t="n">
         <v>12000</v>
@@ -20906,7 +20906,7 @@
         <v>72</v>
       </c>
       <c r="G254" t="n">
-        <v>542.6689814207861</v>
+        <v>542.668665947182</v>
       </c>
       <c r="H254" t="n">
         <v>12000</v>
@@ -21065,10 +21065,10 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>0.00336</v>
+        <v>0.00341</v>
       </c>
       <c r="G256" t="n">
-        <v>0.0050514180419574</v>
+        <v>0.0050993325959448</v>
       </c>
       <c r="H256" t="n">
         <v>0.0216648629073098</v>
@@ -21082,7 +21082,7 @@
         <v>0.0035</v>
       </c>
       <c r="M256" t="n">
-        <v>0.007990000000000001</v>
+        <v>0.00808</v>
       </c>
       <c r="N256" t="n">
         <v>0.01303</v>
@@ -21146,10 +21146,10 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>0.00336</v>
+        <v>0.00341</v>
       </c>
       <c r="G257" t="n">
-        <v>0.0050514180419574</v>
+        <v>0.0050993325959448</v>
       </c>
       <c r="H257" t="n">
         <v>0.0216648629073098</v>
@@ -21163,7 +21163,7 @@
         <v>0.0035</v>
       </c>
       <c r="M257" t="n">
-        <v>0.007990000000000001</v>
+        <v>0.00808</v>
       </c>
       <c r="N257" t="n">
         <v>0.01303</v>
@@ -21230,7 +21230,7 @@
         <v>0.149</v>
       </c>
       <c r="G258" t="n">
-        <v>0.203381307889192</v>
+        <v>0.203419605285156</v>
       </c>
       <c r="H258" t="n">
         <v>0.585</v>
@@ -21311,7 +21311,7 @@
         <v>0.149</v>
       </c>
       <c r="G259" t="n">
-        <v>0.203381307889192</v>
+        <v>0.203419605285156</v>
       </c>
       <c r="H259" t="n">
         <v>0.585</v>
@@ -21465,21 +21465,21 @@
         <v>0.155</v>
       </c>
       <c r="G261" t="n">
-        <v>0.218010721693118</v>
+        <v>0.218075002245069</v>
       </c>
       <c r="H261" t="n">
         <v>0.595</v>
       </c>
       <c r="I261" t="n">
-        <v>0.5148</v>
+        <v>0.51466</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
-        <v>0.053</v>
+        <v>0.05305</v>
       </c>
       <c r="M261" t="n">
-        <v>0.41564</v>
+        <v>0.41578</v>
       </c>
       <c r="N261" t="n">
         <v>0.4789</v>
@@ -21542,21 +21542,21 @@
         <v>0.155</v>
       </c>
       <c r="G262" t="n">
-        <v>0.218010721693118</v>
+        <v>0.218075002245069</v>
       </c>
       <c r="H262" t="n">
         <v>0.595</v>
       </c>
       <c r="I262" t="n">
-        <v>0.5148</v>
+        <v>0.51466</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
-        <v>0.053</v>
+        <v>0.05305</v>
       </c>
       <c r="M262" t="n">
-        <v>0.41564</v>
+        <v>0.41578</v>
       </c>
       <c r="N262" t="n">
         <v>0.4789</v>
@@ -22008,10 +22008,10 @@
         <v>0.6</v>
       </c>
       <c r="G268" t="n">
-        <v>1.21499700917669</v>
+        <v>1.19882796751851</v>
       </c>
       <c r="H268" t="n">
-        <v>5.95984148636446</v>
+        <v>5.10288227848095</v>
       </c>
       <c r="I268" t="n">
         <v>4.151</v>
@@ -22665,10 +22665,10 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>0.00368</v>
+        <v>0.00374</v>
       </c>
       <c r="G276" t="n">
-        <v>0.0053550175391623</v>
+        <v>0.0053988514660256</v>
       </c>
       <c r="H276" t="n">
         <v>0.0216648629073098</v>
@@ -22679,10 +22679,10 @@
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
-        <v>0.0041</v>
+        <v>0.00419</v>
       </c>
       <c r="M276" t="n">
-        <v>0.00902</v>
+        <v>0.00907</v>
       </c>
       <c r="N276" t="n">
         <v>0.01188</v>
@@ -22746,10 +22746,10 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>0.00368</v>
+        <v>0.00374</v>
       </c>
       <c r="G277" t="n">
-        <v>0.0053550175391623</v>
+        <v>0.0053988514660256</v>
       </c>
       <c r="H277" t="n">
         <v>0.0216648629073098</v>
@@ -22760,10 +22760,10 @@
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
-        <v>0.0041</v>
+        <v>0.00419</v>
       </c>
       <c r="M277" t="n">
-        <v>0.00902</v>
+        <v>0.00907</v>
       </c>
       <c r="N277" t="n">
         <v>0.01188</v>
@@ -22830,7 +22830,7 @@
         <v>0.157</v>
       </c>
       <c r="G278" t="n">
-        <v>0.217505562691001</v>
+        <v>0.21754136622003</v>
       </c>
       <c r="H278" t="n">
         <v>0.595</v>
@@ -22911,7 +22911,7 @@
         <v>0.157</v>
       </c>
       <c r="G279" t="n">
-        <v>0.217505562691001</v>
+        <v>0.21754136622003</v>
       </c>
       <c r="H279" t="n">
         <v>0.595</v>
@@ -23065,10 +23065,10 @@
         <v>0.1715</v>
       </c>
       <c r="G281" t="n">
-        <v>0.231163497506145</v>
+        <v>0.231201445330902</v>
       </c>
       <c r="H281" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="I281" t="n">
         <v>0.549</v>
@@ -23142,10 +23142,10 @@
         <v>0.1715</v>
       </c>
       <c r="G282" t="n">
-        <v>0.231163497506145</v>
+        <v>0.231201445330902</v>
       </c>
       <c r="H282" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="I282" t="n">
         <v>0.549</v>
@@ -23608,10 +23608,10 @@
         <v>0.625</v>
       </c>
       <c r="G288" t="n">
-        <v>1.34929682972729</v>
+        <v>1.33215764556962</v>
       </c>
       <c r="H288" t="n">
-        <v>5.95984148636446</v>
+        <v>5.10288227848095</v>
       </c>
       <c r="I288" t="n">
         <v>4.16</v>
@@ -23851,7 +23851,7 @@
         <v>91.5</v>
       </c>
       <c r="G291" t="n">
-        <v>532.330368693664</v>
+        <v>532.328853372346</v>
       </c>
       <c r="H291" t="n">
         <v>12000</v>
@@ -23936,7 +23936,7 @@
         <v>91.5</v>
       </c>
       <c r="G292" t="n">
-        <v>532.330368693664</v>
+        <v>532.328853372346</v>
       </c>
       <c r="H292" t="n">
         <v>12000</v>
@@ -24021,7 +24021,7 @@
         <v>91.5</v>
       </c>
       <c r="G293" t="n">
-        <v>532.330368693664</v>
+        <v>532.328853372346</v>
       </c>
       <c r="H293" t="n">
         <v>12000</v>
@@ -24106,7 +24106,7 @@
         <v>91.5</v>
       </c>
       <c r="G294" t="n">
-        <v>532.330368693664</v>
+        <v>532.328853372346</v>
       </c>
       <c r="H294" t="n">
         <v>12000</v>
@@ -24265,10 +24265,10 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0.00434</v>
+        <v>0.0044</v>
       </c>
       <c r="G296" t="n">
-        <v>0.0052983347035148</v>
+        <v>0.0053303137699104</v>
       </c>
       <c r="H296" t="n">
         <v>0.0195088165454615</v>
@@ -24279,7 +24279,7 @@
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
-        <v>0.0044</v>
+        <v>0.0045</v>
       </c>
       <c r="M296" t="n">
         <v>0.009180000000000001</v>
@@ -24346,10 +24346,10 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0.00434</v>
+        <v>0.0044</v>
       </c>
       <c r="G297" t="n">
-        <v>0.0052983347035148</v>
+        <v>0.0053303137699104</v>
       </c>
       <c r="H297" t="n">
         <v>0.0195088165454615</v>
@@ -24360,7 +24360,7 @@
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
-        <v>0.0044</v>
+        <v>0.0045</v>
       </c>
       <c r="M297" t="n">
         <v>0.009180000000000001</v>
@@ -24430,7 +24430,7 @@
         <v>0.1815</v>
       </c>
       <c r="G298" t="n">
-        <v>0.220890028420875</v>
+        <v>0.220924920829012</v>
       </c>
       <c r="H298" t="n">
         <v>0.595</v>
@@ -24511,7 +24511,7 @@
         <v>0.1815</v>
       </c>
       <c r="G299" t="n">
-        <v>0.220890028420875</v>
+        <v>0.220924920829012</v>
       </c>
       <c r="H299" t="n">
         <v>0.595</v>
@@ -24665,10 +24665,10 @@
         <v>0.1915</v>
       </c>
       <c r="G301" t="n">
-        <v>0.231876201456058</v>
+        <v>0.231911950339956</v>
       </c>
       <c r="H301" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="I301" t="n">
         <v>0.5204</v>
@@ -24742,10 +24742,10 @@
         <v>0.1915</v>
       </c>
       <c r="G302" t="n">
-        <v>0.231876201456058</v>
+        <v>0.231911950339956</v>
       </c>
       <c r="H302" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="I302" t="n">
         <v>0.5204</v>
@@ -25208,10 +25208,10 @@
         <v>0.45</v>
       </c>
       <c r="G308" t="n">
-        <v>1.30572586429926</v>
+        <v>1.28787254746835</v>
       </c>
       <c r="H308" t="n">
-        <v>5.95984148636446</v>
+        <v>5.10288227848095</v>
       </c>
       <c r="I308" t="n">
         <v>4.194</v>
@@ -25451,7 +25451,7 @@
         <v>99</v>
       </c>
       <c r="G311" t="n">
-        <v>591.092167575581</v>
+        <v>591.090598135644</v>
       </c>
       <c r="H311" t="n">
         <v>12000</v>
@@ -25536,7 +25536,7 @@
         <v>99</v>
       </c>
       <c r="G312" t="n">
-        <v>591.092167575581</v>
+        <v>591.090598135644</v>
       </c>
       <c r="H312" t="n">
         <v>12000</v>
@@ -25621,7 +25621,7 @@
         <v>99</v>
       </c>
       <c r="G313" t="n">
-        <v>591.092167575581</v>
+        <v>591.090598135644</v>
       </c>
       <c r="H313" t="n">
         <v>12000</v>
@@ -25706,7 +25706,7 @@
         <v>99</v>
       </c>
       <c r="G314" t="n">
-        <v>591.092167575581</v>
+        <v>591.090598135644</v>
       </c>
       <c r="H314" t="n">
         <v>12000</v>
@@ -25868,7 +25868,7 @@
         <v>0.00457</v>
       </c>
       <c r="G316" t="n">
-        <v>0.0056716312235381</v>
+        <v>0.0056882273848525</v>
       </c>
       <c r="H316" t="n">
         <v>0.0195088165454615</v>
@@ -25879,10 +25879,10 @@
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
-        <v>0.00797</v>
+        <v>0.00808</v>
       </c>
       <c r="M316" t="n">
-        <v>0.01013</v>
+        <v>0.01023</v>
       </c>
       <c r="N316" t="n">
         <v>0.01165</v>
@@ -25949,7 +25949,7 @@
         <v>0.00457</v>
       </c>
       <c r="G317" t="n">
-        <v>0.0056716312235381</v>
+        <v>0.0056882273848525</v>
       </c>
       <c r="H317" t="n">
         <v>0.0195088165454615</v>
@@ -25960,10 +25960,10 @@
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
-        <v>0.00797</v>
+        <v>0.00808</v>
       </c>
       <c r="M317" t="n">
-        <v>0.01013</v>
+        <v>0.01023</v>
       </c>
       <c r="N317" t="n">
         <v>0.01165</v>
@@ -26030,7 +26030,7 @@
         <v>0.1715</v>
       </c>
       <c r="G318" t="n">
-        <v>0.226835150677236</v>
+        <v>0.226876600401858</v>
       </c>
       <c r="H318" t="n">
         <v>0.707</v>
@@ -26111,7 +26111,7 @@
         <v>0.1715</v>
       </c>
       <c r="G319" t="n">
-        <v>0.226835150677236</v>
+        <v>0.226876600401858</v>
       </c>
       <c r="H319" t="n">
         <v>0.707</v>
@@ -26265,7 +26265,7 @@
         <v>0.1825</v>
       </c>
       <c r="G321" t="n">
-        <v>0.235603922936631</v>
+        <v>0.235640948566383</v>
       </c>
       <c r="H321" t="n">
         <v>0.72</v>
@@ -26342,7 +26342,7 @@
         <v>0.1825</v>
       </c>
       <c r="G322" t="n">
-        <v>0.235603922936631</v>
+        <v>0.235640948566383</v>
       </c>
       <c r="H322" t="n">
         <v>0.72</v>
@@ -26701,6 +26701,1606 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F327" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0.4016</v>
+      </c>
+      <c r="N327" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O327" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P327" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S327" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T327" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F328" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G328" t="n">
+        <v>1.22177005178366</v>
+      </c>
+      <c r="H328" t="n">
+        <v>5.10288227848095</v>
+      </c>
+      <c r="I328" t="n">
+        <v>4.262</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M328" t="n">
+        <v>2.906</v>
+      </c>
+      <c r="N328" t="n">
+        <v>4.0902</v>
+      </c>
+      <c r="O328" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P328" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T328" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F329" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05625</v>
+      </c>
+      <c r="H329" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0.01598</v>
+      </c>
+      <c r="N329" t="n">
+        <v>0.02102</v>
+      </c>
+      <c r="O329" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P329" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T329" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F330" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05625</v>
+      </c>
+      <c r="H330" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0.01598</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0.02102</v>
+      </c>
+      <c r="O330" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P330" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T330" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F331" t="n">
+        <v>89</v>
+      </c>
+      <c r="G331" t="n">
+        <v>635.197740992786</v>
+      </c>
+      <c r="H331" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I331" t="n">
+        <v>2799.7</v>
+      </c>
+      <c r="J331" t="n">
+        <v>25</v>
+      </c>
+      <c r="K331" t="n">
+        <v>35.7142857142857</v>
+      </c>
+      <c r="L331" t="n">
+        <v>8</v>
+      </c>
+      <c r="M331" t="n">
+        <v>922.72</v>
+      </c>
+      <c r="N331" t="n">
+        <v>1956.9</v>
+      </c>
+      <c r="O331" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P331" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T331" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F332" t="n">
+        <v>89</v>
+      </c>
+      <c r="G332" t="n">
+        <v>635.197740992786</v>
+      </c>
+      <c r="H332" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I332" t="n">
+        <v>2799.7</v>
+      </c>
+      <c r="J332" t="n">
+        <v>25</v>
+      </c>
+      <c r="K332" t="n">
+        <v>35.7142857142857</v>
+      </c>
+      <c r="L332" t="n">
+        <v>8</v>
+      </c>
+      <c r="M332" t="n">
+        <v>922.72</v>
+      </c>
+      <c r="N332" t="n">
+        <v>1956.9</v>
+      </c>
+      <c r="O332" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P332" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F333" t="n">
+        <v>89</v>
+      </c>
+      <c r="G333" t="n">
+        <v>635.197740992786</v>
+      </c>
+      <c r="H333" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I333" t="n">
+        <v>2799.7</v>
+      </c>
+      <c r="J333" t="n">
+        <v>25</v>
+      </c>
+      <c r="K333" t="n">
+        <v>35.7142857142857</v>
+      </c>
+      <c r="L333" t="n">
+        <v>8</v>
+      </c>
+      <c r="M333" t="n">
+        <v>922.72</v>
+      </c>
+      <c r="N333" t="n">
+        <v>1956.9</v>
+      </c>
+      <c r="O333" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P333" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>89</v>
+      </c>
+      <c r="G334" t="n">
+        <v>635.197740992786</v>
+      </c>
+      <c r="H334" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I334" t="n">
+        <v>2799.7</v>
+      </c>
+      <c r="J334" t="n">
+        <v>25</v>
+      </c>
+      <c r="K334" t="n">
+        <v>35.7142857142857</v>
+      </c>
+      <c r="L334" t="n">
+        <v>8</v>
+      </c>
+      <c r="M334" t="n">
+        <v>922.72</v>
+      </c>
+      <c r="N334" t="n">
+        <v>1956.9</v>
+      </c>
+      <c r="O334" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P334" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F335" t="n">
+        <v>97.39</v>
+      </c>
+      <c r="G335" t="n">
+        <v>97.486</v>
+      </c>
+      <c r="H335" t="n">
+        <v>106</v>
+      </c>
+      <c r="I335" t="n">
+        <v>106</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>97.69499999999999</v>
+      </c>
+      <c r="M335" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="N335" t="n">
+        <v>106</v>
+      </c>
+      <c r="O335" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P335" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F336" t="n">
+        <v>0.00471</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.0054353177907251</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.0195088165454615</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.01192</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>0.00532</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0.00929</v>
+      </c>
+      <c r="N336" t="n">
+        <v>0.01122</v>
+      </c>
+      <c r="O336" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P336" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F337" t="n">
+        <v>0.00471</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0054353177907251</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0.0195088165454615</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.01192</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>0.00532</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0.00929</v>
+      </c>
+      <c r="N337" t="n">
+        <v>0.01122</v>
+      </c>
+      <c r="O337" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P337" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F338" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.225555171830429</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.5516</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>0.01944</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0.43484</v>
+      </c>
+      <c r="N338" t="n">
+        <v>0.48552</v>
+      </c>
+      <c r="O338" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P338" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F339" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.225555171830429</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.5516</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>0.01944</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0.43484</v>
+      </c>
+      <c r="N339" t="n">
+        <v>0.48552</v>
+      </c>
+      <c r="O339" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P339" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F340" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="G340" t="n">
+        <v>4.176</v>
+      </c>
+      <c r="H340" t="n">
+        <v>4.669</v>
+      </c>
+      <c r="I340" t="n">
+        <v>4.669</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>4.035</v>
+      </c>
+      <c r="M340" t="n">
+        <v>4.55035</v>
+      </c>
+      <c r="N340" t="n">
+        <v>4.669</v>
+      </c>
+      <c r="O340" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P340" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>0.1965</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.234542734280669</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0.5593</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="N341" t="n">
+        <v>0.49154</v>
+      </c>
+      <c r="O341" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P341" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F342" t="n">
+        <v>0.1965</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.234542734280669</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.5593</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="N342" t="n">
+        <v>0.49154</v>
+      </c>
+      <c r="O342" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P342" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.433035714285714</v>
+      </c>
+      <c r="H343" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="N343" t="n">
+        <v>0.7712</v>
+      </c>
+      <c r="O343" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P343" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F344" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.433035714285714</v>
+      </c>
+      <c r="H344" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="N344" t="n">
+        <v>0.7712</v>
+      </c>
+      <c r="O344" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P344" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F345" t="n">
+        <v>0.0385</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0610178571428571</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.2266</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0.07396</v>
+      </c>
+      <c r="N345" t="n">
+        <v>0.12832</v>
+      </c>
+      <c r="O345" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P345" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F346" t="n">
+        <v>0.0385</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0610178571428571</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.2266</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0.07396</v>
+      </c>
+      <c r="N346" t="n">
+        <v>0.12832</v>
+      </c>
+      <c r="O346" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="P346" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WhanganuiatPipiriki_aca75a67c4.xlsx
+++ b/state_results/Rivers/WhanganuiatPipiriki_aca75a67c4.xlsx
@@ -7993,13 +7993,13 @@
         <v>0.6</v>
       </c>
       <c r="G93" t="n">
-        <v>1.08408091373197</v>
+        <v>1.07980255705697</v>
       </c>
       <c r="H93" t="n">
         <v>3.92</v>
       </c>
       <c r="I93" t="n">
-        <v>2.83836</v>
+        <v>2.82788</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -9439,7 +9439,7 @@
         <v>0.6</v>
       </c>
       <c r="G111" t="n">
-        <v>1.0785287210366</v>
+        <v>1.07441814305473</v>
       </c>
       <c r="H111" t="n">
         <v>3.92</v>
@@ -10885,13 +10885,13 @@
         <v>0.5</v>
       </c>
       <c r="G129" t="n">
-        <v>0.922448260670749</v>
+        <v>0.9181699039957431</v>
       </c>
       <c r="H129" t="n">
         <v>3.92</v>
       </c>
       <c r="I129" t="n">
-        <v>2.83836</v>
+        <v>2.82788</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -12408,7 +12408,7 @@
         <v>0.5</v>
       </c>
       <c r="G148" t="n">
-        <v>0.875548328879739</v>
+        <v>0.871437750897871</v>
       </c>
       <c r="H148" t="n">
         <v>3.92</v>
@@ -14008,13 +14008,13 @@
         <v>0.6</v>
       </c>
       <c r="G168" t="n">
-        <v>1.11760332859664</v>
+        <v>1.06105498305114</v>
       </c>
       <c r="H168" t="n">
-        <v>8.895510491837589</v>
+        <v>6.22118434609223</v>
       </c>
       <c r="I168" t="n">
-        <v>3.5639</v>
+        <v>3.49288</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -14025,7 +14025,7 @@
         <v>1.9</v>
       </c>
       <c r="N168" t="n">
-        <v>3.094</v>
+        <v>3.0342</v>
       </c>
       <c r="O168" t="n">
         <v>1775744</v>
@@ -15608,10 +15608,10 @@
         <v>0.5</v>
       </c>
       <c r="G188" t="n">
-        <v>0.960710209836752</v>
+        <v>0.907223686921845</v>
       </c>
       <c r="H188" t="n">
-        <v>8.895510491837589</v>
+        <v>6.22118434609223</v>
       </c>
       <c r="I188" t="n">
         <v>3.5</v>
@@ -17208,10 +17208,10 @@
         <v>0.65</v>
       </c>
       <c r="G208" t="n">
-        <v>1.02089236258505</v>
+        <v>0.968454595021416</v>
       </c>
       <c r="H208" t="n">
-        <v>8.895510491837589</v>
+        <v>6.22118434609223</v>
       </c>
       <c r="I208" t="n">
         <v>3.438</v>
@@ -18808,10 +18808,10 @@
         <v>0.65</v>
       </c>
       <c r="G228" t="n">
-        <v>1.06453793380826</v>
+        <v>1.01407894992627</v>
       </c>
       <c r="H228" t="n">
-        <v>8.895510491837589</v>
+        <v>6.22118434609223</v>
       </c>
       <c r="I228" t="n">
         <v>3.44</v>
@@ -20408,10 +20408,10 @@
         <v>0.715</v>
       </c>
       <c r="G248" t="n">
-        <v>1.37019463873773</v>
+        <v>1.32067008048319</v>
       </c>
       <c r="H248" t="n">
-        <v>8.895510491837589</v>
+        <v>6.22118434609223</v>
       </c>
       <c r="I248" t="n">
         <v>4.148</v>
@@ -22008,10 +22008,10 @@
         <v>0.6</v>
       </c>
       <c r="G268" t="n">
-        <v>1.19882796751851</v>
+        <v>1.20444208174032</v>
       </c>
       <c r="H268" t="n">
-        <v>5.10288227848095</v>
+        <v>5.4004303322368</v>
       </c>
       <c r="I268" t="n">
         <v>4.151</v>
@@ -23608,10 +23608,10 @@
         <v>0.625</v>
       </c>
       <c r="G288" t="n">
-        <v>1.33215764556962</v>
+        <v>1.33810860664474</v>
       </c>
       <c r="H288" t="n">
-        <v>5.10288227848095</v>
+        <v>5.4004303322368</v>
       </c>
       <c r="I288" t="n">
         <v>4.16</v>
@@ -25208,10 +25208,10 @@
         <v>0.45</v>
       </c>
       <c r="G308" t="n">
-        <v>1.28787254746835</v>
+        <v>1.29407146525493</v>
       </c>
       <c r="H308" t="n">
-        <v>5.10288227848095</v>
+        <v>5.4004303322368</v>
       </c>
       <c r="I308" t="n">
         <v>4.194</v>
@@ -26808,10 +26808,10 @@
         <v>0.4</v>
       </c>
       <c r="G328" t="n">
-        <v>1.22177005178366</v>
+        <v>1.22853250755084</v>
       </c>
       <c r="H328" t="n">
-        <v>5.10288227848095</v>
+        <v>5.4004303322368</v>
       </c>
       <c r="I328" t="n">
         <v>4.262</v>
